--- a/Brain/Interview/NodeJS/NestJS.xlsx
+++ b/Brain/Interview/NodeJS/NestJS.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC0DBD6-3050-42F9-8A3E-CD03C06DAE60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="14" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Controller" sheetId="28" r:id="rId1"/>
     <sheet name="Pipe and filter" sheetId="27" r:id="rId2"/>
     <sheet name="Lazy-loading modules" sheetId="1" r:id="rId3"/>
-    <sheet name="Circular dependency" sheetId="2" r:id="rId4"/>
-    <sheet name="Interceptors" sheetId="3" r:id="rId5"/>
-    <sheet name="Passport (authentication)" sheetId="4" r:id="rId6"/>
-    <sheet name="Guard and middleware" sheetId="24" r:id="rId7"/>
-    <sheet name="Execution Context" sheetId="9" r:id="rId8"/>
-    <sheet name="Injection Scopes" sheetId="5" r:id="rId9"/>
-    <sheet name="Dynamic Module" sheetId="6" r:id="rId10"/>
-    <sheet name="ModuleRef" sheetId="7" r:id="rId11"/>
+    <sheet name="ModuleRef" sheetId="7" r:id="rId4"/>
+    <sheet name="Circular dependency" sheetId="2" r:id="rId5"/>
+    <sheet name="Interceptors" sheetId="3" r:id="rId6"/>
+    <sheet name="Passport (authentication)" sheetId="4" r:id="rId7"/>
+    <sheet name="Guard and middleware" sheetId="24" r:id="rId8"/>
+    <sheet name="Execution Context" sheetId="9" r:id="rId9"/>
+    <sheet name="Injection Scopes" sheetId="5" r:id="rId10"/>
+    <sheet name="Dynamic Module" sheetId="6" r:id="rId11"/>
     <sheet name="Lifecycle Events" sheetId="8" r:id="rId12"/>
     <sheet name="Queues" sheetId="11" r:id="rId13"/>
     <sheet name="Session" sheetId="12" r:id="rId14"/>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>A circular dependency occurs when two classes depend on each other. For example, class A needs class B, and class B also needs class A. Circular dependencies can arise in Nest between modules and between providers.</t>
   </si>
@@ -78,12 +77,49 @@
     <t>This hook is ideal for performing tasks that require the entire application to be fully set up</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <r>
+      <t>Redis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> là một </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in-memory data store</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (cơ sở dữ liệu trong bộ nhớ).</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +147,15 @@
       <color rgb="FF9C5700"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -151,10 +196,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -322,16 +368,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>465724</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114048</xdr:rowOff>
+      <xdr:colOff>180009</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66012</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -348,78 +394,78 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="685800" y="238125"/>
-          <a:ext cx="8009524" cy="2019048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+          <a:ext cx="7723809" cy="5304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>180009</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>18482</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="238125"/>
+          <a:ext cx="7723809" cy="4542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>465724</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>37262</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="2619375"/>
-          <a:ext cx="8009524" cy="6704762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>465724</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>18512</xdr:rowOff>
+      <xdr:colOff>180009</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>237589</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -435,35 +481,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9601200" y="238125"/>
-          <a:ext cx="8009524" cy="4304762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>465724</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>28214</xdr:rowOff>
+          <a:off x="685800" y="5953125"/>
+          <a:ext cx="7723809" cy="4285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>180009</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>237589</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -479,35 +525,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9601200" y="4762500"/>
-          <a:ext cx="8009524" cy="2885714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>465724</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>104375</xdr:rowOff>
+          <a:off x="8915400" y="5953125"/>
+          <a:ext cx="7723809" cy="4285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>475419</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>104345</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -523,8 +569,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="9763125"/>
-          <a:ext cx="8009524" cy="3200000"/>
+          <a:off x="685800" y="10715625"/>
+          <a:ext cx="6647619" cy="3438095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -547,16 +593,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>408581</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>75357</xdr:rowOff>
+      <xdr:colOff>465724</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114048</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -573,7 +619,51 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="685800" y="238125"/>
-          <a:ext cx="7952381" cy="6742857"/>
+          <a:ext cx="8009524" cy="2019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>465724</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>37262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="2619375"/>
+          <a:ext cx="8009524" cy="6704762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -591,25 +681,25 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>408581</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>180119</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+      <xdr:colOff>465724</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>18512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -617,122 +707,78 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9601200" y="238125"/>
-          <a:ext cx="7952381" cy="6847619"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>332648</xdr:colOff>
+          <a:ext cx="8009524" cy="4304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>465724</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9601200" y="4762500"/>
+          <a:ext cx="8009524" cy="2885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>180655</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="7381875"/>
-          <a:ext cx="5819048" cy="2561905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>655686</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>94315</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7543800" y="7381875"/>
-          <a:ext cx="12314286" cy="7476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>532476</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>142649</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>465724</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>104375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -748,8 +794,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="15240000"/>
-          <a:ext cx="7390476" cy="1809524"/>
+          <a:off x="685800" y="9763125"/>
+          <a:ext cx="8009524" cy="3200000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1038,34 +1084,294 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>18105</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="238125"/>
+          <a:ext cx="7561905" cy="2504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>94552</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>199792</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="238125"/>
+          <a:ext cx="5580952" cy="1866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>580438</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>75625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="3095625"/>
+          <a:ext cx="4695238" cy="4600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>246848</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123393</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="3095625"/>
+          <a:ext cx="6419048" cy="3457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>485114</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190089</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13030200" y="3095625"/>
+          <a:ext cx="5285714" cy="3285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>684943</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>104494</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="238125"/>
-          <a:ext cx="6857143" cy="2247619"/>
+      <xdr:colOff>37324</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>113750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="8096250"/>
+          <a:ext cx="6209524" cy="4400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>523381</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>37589</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="8096250"/>
+          <a:ext cx="3952381" cy="4085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>503990</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>190149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="12858750"/>
+          <a:ext cx="6676190" cy="2809524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1123,6 +1429,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>237495</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47470</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="3095625"/>
+          <a:ext cx="5038095" cy="1238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3535,21 +3879,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>570914</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>132946</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>408581</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>75357</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3565,123 +3909,123 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="714375"/>
-          <a:ext cx="4685714" cy="3228571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>580524</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>104524</xdr:rowOff>
+          <a:off x="685800" y="238125"/>
+          <a:ext cx="7952381" cy="6742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>408581</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9601200" y="238125"/>
+          <a:ext cx="7952381" cy="6847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>332648</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180655</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="5238750"/>
-          <a:ext cx="4009524" cy="2009524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>275762</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>66429</xdr:rowOff>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="7381875"/>
+          <a:ext cx="5819048" cy="2561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>655686</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>94315</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="5238750"/>
-          <a:ext cx="3704762" cy="1971429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>417762</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>56399</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3697,35 +4041,35 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="8096250"/>
-          <a:ext cx="10704762" cy="6009524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>446676</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>218304</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1567FBF6-F80F-B5F1-2AE2-F6CC929968A7}"/>
+          <a:off x="7543800" y="7381875"/>
+          <a:ext cx="12314286" cy="7476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>532476</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>142649</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3741,8 +4085,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12344400" y="8096250"/>
-          <a:ext cx="7990476" cy="6171429"/>
+          <a:off x="685800" y="15240000"/>
+          <a:ext cx="7390476" cy="1809524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3760,21 +4104,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>570914</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>341914</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>227857</xdr:rowOff>
+      <xdr:rowOff>132946</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3790,229 +4134,184 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="238125"/>
-          <a:ext cx="7885714" cy="5942857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
+          <a:off x="685800" y="714375"/>
+          <a:ext cx="4685714" cy="3228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>580524</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="5238750"/>
+          <a:ext cx="4009524" cy="2009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>351867</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>227738</xdr:rowOff>
+      <xdr:colOff>275762</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="5238750"/>
+          <a:ext cx="3704762" cy="1971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>417762</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>56399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="8096250"/>
+          <a:ext cx="10704762" cy="6009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>446676</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>218304</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8915400" y="238125"/>
-          <a:ext cx="4466667" cy="6895238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>570657</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>237619</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="6429375"/>
-          <a:ext cx="6742857" cy="4047619"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>8838</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>46905</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="10953750"/>
-          <a:ext cx="5495238" cy="5761905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>238124</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>551524</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1567FBF6-F80F-B5F1-2AE2-F6CC929968A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:srcRect b="53774"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="238124"/>
-          <a:ext cx="7409524" cy="2505075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>37324</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>37738</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8915400" y="238125"/>
-          <a:ext cx="6209524" cy="2895238"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12344400" y="8096250"/>
+          <a:ext cx="7990476" cy="6171429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4030,6 +4329,276 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>341914</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>227857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="238125"/>
+          <a:ext cx="7885714" cy="5942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>351867</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>227738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="238125"/>
+          <a:ext cx="4466667" cy="6895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>570657</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>237619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="6429375"/>
+          <a:ext cx="6742857" cy="4047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8838</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>46905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="10953750"/>
+          <a:ext cx="5495238" cy="5761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>551524</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect b="53774"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="238124"/>
+          <a:ext cx="7409524" cy="2505075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>37324</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>37738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="238125"/>
+          <a:ext cx="6209524" cy="2895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -4425,7 +4994,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4968,7 +5537,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5138,231 +5707,6 @@
         <a:xfrm>
           <a:off x="8915400" y="238125"/>
           <a:ext cx="7666667" cy="5904762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>180009</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>66012</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="238125"/>
-          <a:ext cx="7723809" cy="5304762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>180009</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>18482</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8915400" y="238125"/>
-          <a:ext cx="7723809" cy="4542857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>180009</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>237589</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="5953125"/>
-          <a:ext cx="7723809" cy="4285714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>180009</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>237589</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8915400" y="5953125"/>
-          <a:ext cx="7723809" cy="4285714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>475419</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>104345</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="685800" y="10715625"/>
-          <a:ext cx="6647619" cy="3438095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5636,11 +5980,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA8C9A5-2458-41B2-9D45-2368D08B5E82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5652,11 +5996,28 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="O35"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="R46" sqref="R46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5673,28 +6034,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="N78" sqref="N78"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V18"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5728,15 +6073,21 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5744,11 +6095,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5761,11 +6112,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B15:Y42"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44:Y55"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="P63" sqref="P63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5805,11 +6156,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5821,11 +6172,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5838,11 +6189,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5854,11 +6205,11 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R75" sqref="R75"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="O72" sqref="O72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5872,11 +6223,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91AA166-7EB5-448B-B968-2D8C8EEB2B9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B43:Y43"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5915,11 +6266,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5931,11 +6282,11 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5948,7 +6299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5966,10 +6317,10 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
@@ -5983,7 +6334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -6000,11 +6351,11 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6017,7 +6368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E3ECE0-1430-4DED-987C-C49977D90C9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6033,7 +6384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD9E4A8-70D2-4187-9788-EB63A51F205E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6049,11 +6400,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:X7"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6092,11 +6443,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Y33"/>
   <sheetViews>
-    <sheetView topLeftCell="G28" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23:AE31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6170,12 +6537,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="W32" sqref="W32:X32"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="X33" sqref="X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6186,12 +6553,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B14:Y92"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y94" sqref="Y94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6281,12 +6648,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2E679F-CCCB-416A-82D7-8E45F21A5E62}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A77"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="K102" sqref="K102"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6309,12 +6676,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6323,21 +6690,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="M63" sqref="M63"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>